--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Lgi2</t>
+  </si>
+  <si>
+    <t>Adam11</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lgi2</t>
-  </si>
-  <si>
-    <t>Adam11</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1156076666666667</v>
+        <v>3.534912333333333</v>
       </c>
       <c r="H2">
-        <v>0.346823</v>
+        <v>10.604737</v>
       </c>
       <c r="I2">
-        <v>0.0262963554364261</v>
+        <v>0.9734411944552773</v>
       </c>
       <c r="J2">
-        <v>0.02787250156631785</v>
+        <v>0.9821359806312981</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1597026666666667</v>
+        <v>0.1135006666666667</v>
       </c>
       <c r="N2">
-        <v>0.479108</v>
+        <v>0.340502</v>
       </c>
       <c r="O2">
-        <v>0.04388290247716727</v>
+        <v>0.1328118661732309</v>
       </c>
       <c r="P2">
-        <v>0.06180863149382944</v>
+        <v>0.1579033525861449</v>
       </c>
       <c r="Q2">
-        <v>0.01846285265377778</v>
+        <v>0.4012149064415555</v>
       </c>
       <c r="R2">
-        <v>0.166165673884</v>
+        <v>3.610934157974</v>
       </c>
       <c r="S2">
-        <v>0.001153960401121614</v>
+        <v>0.1292845416455043</v>
       </c>
       <c r="T2">
-        <v>0.001722761178123724</v>
+        <v>0.1550825640371631</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1156076666666667</v>
+        <v>3.534912333333333</v>
       </c>
       <c r="H3">
-        <v>0.346823</v>
+        <v>10.604737</v>
       </c>
       <c r="I3">
-        <v>0.0262963554364261</v>
+        <v>0.9734411944552773</v>
       </c>
       <c r="J3">
-        <v>0.02787250156631785</v>
+        <v>0.9821359806312981</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +623,22 @@
         <v>0.549087</v>
       </c>
       <c r="O3">
-        <v>0.05029248368317861</v>
+        <v>0.2141698702546853</v>
       </c>
       <c r="P3">
-        <v>0.07083646284564717</v>
+        <v>0.2546319204041931</v>
       </c>
       <c r="Q3">
-        <v>0.02115955562233333</v>
+        <v>0.6469914694576666</v>
       </c>
       <c r="R3">
-        <v>0.190436000601</v>
+        <v>5.822923225119</v>
       </c>
       <c r="S3">
-        <v>0.001322509026713525</v>
+        <v>0.2084817743170526</v>
       </c>
       <c r="T3">
-        <v>0.001974389421617717</v>
+        <v>0.2500831708462029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.534912333333333</v>
+      </c>
+      <c r="H4">
+        <v>10.604737</v>
+      </c>
+      <c r="I4">
+        <v>0.9734411944552773</v>
+      </c>
+      <c r="J4">
+        <v>0.9821359806312981</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.1156076666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.346823</v>
-      </c>
-      <c r="I4">
-        <v>0.0262963554364261</v>
-      </c>
-      <c r="J4">
-        <v>0.02787250156631785</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.103563</v>
+        <v>0.1506706666666666</v>
       </c>
       <c r="N4">
-        <v>0.310689</v>
+        <v>0.452012</v>
       </c>
       <c r="O4">
-        <v>0.0284569138643659</v>
+        <v>0.1763060341868607</v>
       </c>
       <c r="P4">
-        <v>0.04008128002493461</v>
+        <v>0.209614657796925</v>
       </c>
       <c r="Q4">
-        <v>0.011972676783</v>
+        <v>0.5326075978715554</v>
       </c>
       <c r="R4">
-        <v>0.107754091047</v>
+        <v>4.793468380844</v>
       </c>
       <c r="S4">
-        <v>0.0007483131216011276</v>
+        <v>0.1716235565085306</v>
       </c>
       <c r="T4">
-        <v>0.001117165540275014</v>
+        <v>0.2058700974900769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1156076666666667</v>
+        <v>3.534912333333333</v>
       </c>
       <c r="H5">
-        <v>0.346823</v>
+        <v>10.604737</v>
       </c>
       <c r="I5">
-        <v>0.0262963554364261</v>
+        <v>0.9734411944552773</v>
       </c>
       <c r="J5">
-        <v>0.02787250156631785</v>
+        <v>0.9821359806312981</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,90 +741,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.1664</v>
+        <v>0.407397</v>
       </c>
       <c r="N5">
-        <v>6.3328</v>
+        <v>0.814794</v>
       </c>
       <c r="O5">
-        <v>0.8700595005950792</v>
+        <v>0.4767122293852232</v>
       </c>
       <c r="P5">
-        <v>0.816980099526877</v>
+        <v>0.3778500692127371</v>
       </c>
       <c r="Q5">
-        <v>0.3660601157333333</v>
+        <v>1.440112679863</v>
       </c>
       <c r="R5">
-        <v>2.1963606944</v>
+        <v>8.640676079178</v>
       </c>
       <c r="S5">
-        <v>0.02287939387848759</v>
+        <v>0.4640513219841898</v>
       </c>
       <c r="T5">
-        <v>0.02277127910371339</v>
+        <v>0.3711001482578554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.0964445</v>
+      </c>
+      <c r="H6">
+        <v>0.192889</v>
+      </c>
+      <c r="I6">
+        <v>0.0265588055447227</v>
+      </c>
+      <c r="J6">
+        <v>0.01786401936870197</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.1156076666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.346823</v>
-      </c>
-      <c r="I6">
-        <v>0.0262963554364261</v>
-      </c>
-      <c r="J6">
-        <v>0.02787250156631785</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.02659666666666667</v>
+        <v>0.1135006666666667</v>
       </c>
       <c r="N6">
-        <v>0.07979</v>
+        <v>0.340502</v>
       </c>
       <c r="O6">
-        <v>0.007308199380209005</v>
+        <v>0.1328118661732309</v>
       </c>
       <c r="P6">
-        <v>0.01029352610871171</v>
+        <v>0.1579033525861449</v>
       </c>
       <c r="Q6">
-        <v>0.003074778574444445</v>
+        <v>0.01094651504633333</v>
       </c>
       <c r="R6">
-        <v>0.02767300717</v>
+        <v>0.06567909027799999</v>
       </c>
       <c r="S6">
-        <v>0.0001921790085022449</v>
+        <v>0.003527324527726573</v>
       </c>
       <c r="T6">
-        <v>0.0002869063225880008</v>
+        <v>0.00282078854898187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>3.534912333333333</v>
+        <v>0.0964445</v>
       </c>
       <c r="H7">
-        <v>10.604737</v>
+        <v>0.192889</v>
       </c>
       <c r="I7">
-        <v>0.8040583625129217</v>
+        <v>0.0265588055447227</v>
       </c>
       <c r="J7">
-        <v>0.8522518651960477</v>
+        <v>0.01786401936870197</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1597026666666667</v>
+        <v>0.183029</v>
       </c>
       <c r="N7">
-        <v>0.479108</v>
+        <v>0.549087</v>
       </c>
       <c r="O7">
-        <v>0.04388290247716727</v>
+        <v>0.2141698702546853</v>
       </c>
       <c r="P7">
-        <v>0.06180863149382944</v>
+        <v>0.2546319204041931</v>
       </c>
       <c r="Q7">
-        <v>0.5645349260662222</v>
+        <v>0.0176521403905</v>
       </c>
       <c r="R7">
-        <v>5.080814334596</v>
+        <v>0.105912842343</v>
       </c>
       <c r="S7">
-        <v>0.03528441470810535</v>
+        <v>0.005688095937632676</v>
       </c>
       <c r="T7">
-        <v>0.05267652147583132</v>
+        <v>0.004548749557990285</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>3.534912333333333</v>
+        <v>0.0964445</v>
       </c>
       <c r="H8">
-        <v>10.604737</v>
+        <v>0.192889</v>
       </c>
       <c r="I8">
-        <v>0.8040583625129217</v>
+        <v>0.0265588055447227</v>
       </c>
       <c r="J8">
-        <v>0.8522518651960477</v>
+        <v>0.01786401936870197</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.183029</v>
+        <v>0.1506706666666666</v>
       </c>
       <c r="N8">
-        <v>0.549087</v>
+        <v>0.452012</v>
       </c>
       <c r="O8">
-        <v>0.05029248368317861</v>
+        <v>0.1763060341868607</v>
       </c>
       <c r="P8">
-        <v>0.07083646284564717</v>
+        <v>0.209614657796925</v>
       </c>
       <c r="Q8">
-        <v>0.6469914694576666</v>
+        <v>0.01453135711133333</v>
       </c>
       <c r="R8">
-        <v>5.822923225119</v>
+        <v>0.087188142668</v>
       </c>
       <c r="S8">
-        <v>0.04043809207700443</v>
+        <v>0.004682477678330066</v>
       </c>
       <c r="T8">
-        <v>0.06037050758409333</v>
+        <v>0.003744560306848103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,495 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>3.534912333333333</v>
+        <v>0.0964445</v>
       </c>
       <c r="H9">
-        <v>10.604737</v>
+        <v>0.192889</v>
       </c>
       <c r="I9">
-        <v>0.8040583625129217</v>
+        <v>0.0265588055447227</v>
       </c>
       <c r="J9">
-        <v>0.8522518651960477</v>
+        <v>0.01786401936870197</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.103563</v>
+        <v>0.407397</v>
       </c>
       <c r="N9">
-        <v>0.310689</v>
+        <v>0.814794</v>
       </c>
       <c r="O9">
-        <v>0.0284569138643659</v>
+        <v>0.4767122293852232</v>
       </c>
       <c r="P9">
-        <v>0.04008128002493461</v>
+        <v>0.3778500692127371</v>
       </c>
       <c r="Q9">
-        <v>0.366086125977</v>
+        <v>0.0392911999665</v>
       </c>
       <c r="R9">
-        <v>3.294775133793</v>
+        <v>0.157164799866</v>
       </c>
       <c r="S9">
-        <v>0.02288101956395331</v>
+        <v>0.01266090740103339</v>
       </c>
       <c r="T9">
-        <v>0.03415934566069561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.534912333333333</v>
-      </c>
-      <c r="H10">
-        <v>10.604737</v>
-      </c>
-      <c r="I10">
-        <v>0.8040583625129217</v>
-      </c>
-      <c r="J10">
-        <v>0.8522518651960477</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.1664</v>
-      </c>
-      <c r="N10">
-        <v>6.3328</v>
-      </c>
-      <c r="O10">
-        <v>0.8700595005950792</v>
-      </c>
-      <c r="P10">
-        <v>0.816980099526877</v>
-      </c>
-      <c r="Q10">
-        <v>11.19294641226667</v>
-      </c>
-      <c r="R10">
-        <v>67.1576784736</v>
-      </c>
-      <c r="S10">
-        <v>0.6995786173372899</v>
-      </c>
-      <c r="T10">
-        <v>0.6962728136498336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3.534912333333333</v>
-      </c>
-      <c r="H11">
-        <v>10.604737</v>
-      </c>
-      <c r="I11">
-        <v>0.8040583625129217</v>
-      </c>
-      <c r="J11">
-        <v>0.8522518651960477</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.02659666666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.07979</v>
-      </c>
-      <c r="O11">
-        <v>0.007308199380209005</v>
-      </c>
-      <c r="P11">
-        <v>0.01029352610871171</v>
-      </c>
-      <c r="Q11">
-        <v>0.09401688502555555</v>
-      </c>
-      <c r="R11">
-        <v>0.84615196523</v>
-      </c>
-      <c r="S11">
-        <v>0.005876218826568802</v>
-      </c>
-      <c r="T11">
-        <v>0.008772676825593771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.7458180000000001</v>
-      </c>
-      <c r="H12">
-        <v>1.491636</v>
-      </c>
-      <c r="I12">
-        <v>0.1696452820506522</v>
-      </c>
-      <c r="J12">
-        <v>0.1198756332376345</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.1597026666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.479108</v>
-      </c>
-      <c r="O12">
-        <v>0.04388290247716727</v>
-      </c>
-      <c r="P12">
-        <v>0.06180863149382944</v>
-      </c>
-      <c r="Q12">
-        <v>0.119109123448</v>
-      </c>
-      <c r="R12">
-        <v>0.7146547406880002</v>
-      </c>
-      <c r="S12">
-        <v>0.007444527367940304</v>
-      </c>
-      <c r="T12">
-        <v>0.007409348839874401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.7458180000000001</v>
-      </c>
-      <c r="H13">
-        <v>1.491636</v>
-      </c>
-      <c r="I13">
-        <v>0.1696452820506522</v>
-      </c>
-      <c r="J13">
-        <v>0.1198756332376345</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.183029</v>
-      </c>
-      <c r="N13">
-        <v>0.549087</v>
-      </c>
-      <c r="O13">
-        <v>0.05029248368317861</v>
-      </c>
-      <c r="P13">
-        <v>0.07083646284564717</v>
-      </c>
-      <c r="Q13">
-        <v>0.136506322722</v>
-      </c>
-      <c r="R13">
-        <v>0.8190379363320001</v>
-      </c>
-      <c r="S13">
-        <v>0.008531882579460658</v>
-      </c>
-      <c r="T13">
-        <v>0.00849156583993612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.7458180000000001</v>
-      </c>
-      <c r="H14">
-        <v>1.491636</v>
-      </c>
-      <c r="I14">
-        <v>0.1696452820506522</v>
-      </c>
-      <c r="J14">
-        <v>0.1198756332376345</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.103563</v>
-      </c>
-      <c r="N14">
-        <v>0.310689</v>
-      </c>
-      <c r="O14">
-        <v>0.0284569138643659</v>
-      </c>
-      <c r="P14">
-        <v>0.04008128002493461</v>
-      </c>
-      <c r="Q14">
-        <v>0.07723914953400002</v>
-      </c>
-      <c r="R14">
-        <v>0.4634348972040001</v>
-      </c>
-      <c r="S14">
-        <v>0.004827581178811468</v>
-      </c>
-      <c r="T14">
-        <v>0.004804768823963986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.7458180000000001</v>
-      </c>
-      <c r="H15">
-        <v>1.491636</v>
-      </c>
-      <c r="I15">
-        <v>0.1696452820506522</v>
-      </c>
-      <c r="J15">
-        <v>0.1198756332376345</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>3.1664</v>
-      </c>
-      <c r="N15">
-        <v>6.3328</v>
-      </c>
-      <c r="O15">
-        <v>0.8700595005950792</v>
-      </c>
-      <c r="P15">
-        <v>0.816980099526877</v>
-      </c>
-      <c r="Q15">
-        <v>2.3615581152</v>
-      </c>
-      <c r="R15">
-        <v>9.446232460800001</v>
-      </c>
-      <c r="S15">
-        <v>0.1476014893793018</v>
-      </c>
-      <c r="T15">
-        <v>0.09793600677333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.7458180000000001</v>
-      </c>
-      <c r="H16">
-        <v>1.491636</v>
-      </c>
-      <c r="I16">
-        <v>0.1696452820506522</v>
-      </c>
-      <c r="J16">
-        <v>0.1198756332376345</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.02659666666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.07979</v>
-      </c>
-      <c r="O16">
-        <v>0.007308199380209005</v>
-      </c>
-      <c r="P16">
-        <v>0.01029352610871171</v>
-      </c>
-      <c r="Q16">
-        <v>0.01983627274</v>
-      </c>
-      <c r="R16">
-        <v>0.11901763644</v>
-      </c>
-      <c r="S16">
-        <v>0.001239801545137958</v>
-      </c>
-      <c r="T16">
-        <v>0.00123394296052994</v>
+        <v>0.006749920954881716</v>
       </c>
     </row>
   </sheetData>
